--- a/output_by_subject/CS555.xlsx
+++ b/output_by_subject/CS555.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2775,6 +2775,50 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1801CS51</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CS555</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Department Elective - III</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1801CS64</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CS555</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Department Elective - III</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
